--- a/src/load/generator/BenchMark统计记录表格.xlsx
+++ b/src/load/generator/BenchMark统计记录表格.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqingshuai/Documents/GitHub/Adaptive_Concurrency_Control/src/load/generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e620131c24a12899/文档/实验室/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9A7D49-A565-7A4C-8AEB-1669D6525C3A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="6_{46520BD4-40B7-9A4C-9999-29DC77D8E0D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F94430FC-E527-514C-9F98-4431678D4D01}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-17540" windowWidth="28800" windowHeight="17540" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="基本统计信息" sheetId="6" r:id="rId2"/>
-    <sheet name="table详细统计" sheetId="7" r:id="rId3"/>
-    <sheet name="table统计分析" sheetId="8" r:id="rId4"/>
+    <sheet name="table详细统计" sheetId="7" r:id="rId2"/>
+    <sheet name="table统计分析" sheetId="8" r:id="rId3"/>
+    <sheet name="负载模板详细统计" sheetId="9" r:id="rId4"/>
+    <sheet name="基本统计信息" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
   <si>
     <t>&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +348,350 @@
   </si>
   <si>
     <t>float属性数量分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增删查改数目记录</t>
+    <rPh sb="0" eb="2">
+      <t>zeng shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char/varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demical/float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择项</t>
+    <rPh sb="0" eb="2">
+      <t>xuan ze xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件类别（默认全主键）</t>
+    <rPh sb="0" eb="2">
+      <t>tiao jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select详细统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert插入项详细统计</t>
+    <rPh sb="0" eb="2">
+      <t>cha ru xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update详细统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete条件类别详细统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Stock-Level</t>
+  </si>
+  <si>
+    <t>GET_SUBSCRIBER_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET_NEW_DESTINATION</t>
+  </si>
+  <si>
+    <t>GET_ACCESS_DATA</t>
+  </si>
+  <si>
+    <t>UPDATE_SUBSCRIBER_DATA</t>
+  </si>
+  <si>
+    <t>UPDATE_LOCATION</t>
+  </si>
+  <si>
+    <t>INSERT_CALL_FORWARDING</t>
+  </si>
+  <si>
+    <t>DELETE_CALL_FORWARDING</t>
+  </si>
+  <si>
+    <t>Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amalgamate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepositChecking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransactSaving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallbank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteReservation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindFlights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindOpenSeats</t>
+  </si>
+  <si>
+    <t>NewReservation</t>
+  </si>
+  <si>
+    <t>UpdateCustomer</t>
+  </si>
+  <si>
+    <t>UpdateReservation</t>
+  </si>
+  <si>
+    <t>SendPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（无主键表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失一个主键</t>
+    <rPh sb="0" eb="2">
+      <t>que shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失一个主键，增加一个int（外键）</t>
+    <rPh sb="0" eb="1">
+      <t>que shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <rPh sb="0" eb="2">
+      <t>zhu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>cao zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count,distinct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，表1全主键，一个非主键设置单值
+表2，在一个非外键主键
+，设置范围区间，全主键</t>
+    <rPh sb="0" eb="2">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主键，condition来自char，
+但是char为主键字符串补0</t>
+    <rPh sb="0" eb="2">
+      <t>zhu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失一个主键，增加一个char（姓氏）（2次）</t>
+    <rPh sb="0" eb="191">
+      <t>que shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（2次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非主键，condition来自char，
+但是char为主键字符串</t>
+    <rPh sb="0" eb="2">
+      <t>zhu jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失一个主键，在一个非主键float上取range</t>
+    <rPh sb="0" eb="2">
+      <t>que shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三表join，表1全主键，表2缺失1个主键，
+表3缺失一个主键</t>
+    <rPh sb="0" eb="2">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，表1全主键，表2，
+缺失全部主键选择，采用char，为主键字符串</t>
+    <rPh sb="0" eb="2">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，表1缺失一个主键，一个主键取range，
+表2全主键，在一个非主键decimal上取range</t>
+    <rPh sb="0" eb="2">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，表1全主键，表2主键</t>
+    <rPh sb="0" eb="1">
+      <t>liang biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，表1无主键，在一个int上取定值，一个timestamp上取range，一个int上取in操作，表2全主键</t>
+    <rPh sb="0" eb="2">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含代数计算</t>
+    <rPh sb="0" eb="2">
+      <t>bao han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失两个主键</t>
+    <rPh sb="0" eb="2">
+      <t>que shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两表join，全主键</t>
+    <rPh sb="0" eb="2">
+      <t>liang biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失两个主键，在一个非主键int上取定值</t>
+    <rPh sb="0" eb="2">
+      <t>quw shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失一个主键</t>
+    <rPh sb="0" eb="1">
+      <t>que shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -555,6 +900,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,12 +1015,6 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,12 +1027,6 @@
     <xf numFmtId="10" fontId="9" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,7 +1036,49 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1410,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1162,351 +1555,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241F2ED-A28C-2942-B392-4659B1B8B3D0}">
-  <dimension ref="A2:N23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:14">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8">
-        <v>16</v>
-      </c>
-      <c r="D2" s="8">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
-        <v>500</v>
-      </c>
-      <c r="F2" s="4">
-        <v>64</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4">
-        <v>128</v>
-      </c>
-      <c r="J2" s="7">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4">
-        <v>32</v>
-      </c>
-      <c r="L2" s="6">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5">
-        <v>5</v>
-      </c>
-      <c r="N2" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="10">
-        <v>3</v>
-      </c>
-      <c r="J8" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="4">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6">
-        <v>8</v>
-      </c>
-      <c r="J10" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>10</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="I13" s="7">
-        <v>15</v>
-      </c>
-      <c r="J13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="I14" s="9">
-        <v>16</v>
-      </c>
-      <c r="J14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="I15" s="9">
-        <v>20</v>
-      </c>
-      <c r="J15" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="I16" s="4">
-        <v>32</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="I17" s="4">
-        <v>64</v>
-      </c>
-      <c r="J17" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="I18" s="4">
-        <v>128</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>500</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="I7:J19">
-    <sortCondition ref="I7"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B209ACA-1486-3746-A4D4-6EA5CED53176}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -1515,25 +1563,25 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="31"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
@@ -1566,7 +1614,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="16">
@@ -1587,7 +1635,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="16">
         <v>5</v>
       </c>
@@ -1610,7 +1658,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">
-      <c r="A5" s="21"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="16">
         <v>6</v>
       </c>
@@ -1635,7 +1683,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
-      <c r="A6" s="21"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1658,7 +1706,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
-      <c r="A7" s="21"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -1683,7 +1731,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
-      <c r="A8" s="21"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="16">
         <v>1</v>
       </c>
@@ -1708,7 +1756,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1">
-      <c r="A9" s="21"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="16">
         <v>3</v>
       </c>
@@ -1733,7 +1781,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
-      <c r="A10" s="21"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="16">
         <f>3+2</f>
         <v>5</v>
@@ -1763,7 +1811,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="21"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="16">
         <v>5</v>
       </c>
@@ -1788,7 +1836,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="16">
@@ -1813,7 +1861,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="16">
         <v>37</v>
       </c>
@@ -1836,7 +1884,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="16">
         <v>19</v>
       </c>
@@ -1859,7 +1907,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="16">
         <v>13</v>
       </c>
@@ -1880,7 +1928,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="16">
         <v>5</v>
       </c>
@@ -1905,7 +1953,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="16">
         <v>1</v>
       </c>
@@ -1926,7 +1974,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -1947,11 +1995,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="16">
         <v>18</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16">
@@ -1968,7 +2016,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="16">
         <v>18</v>
       </c>
@@ -1989,7 +2037,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="16">
         <v>1</v>
       </c>
@@ -2010,7 +2058,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="29" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="16">
@@ -2033,7 +2081,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1">
-      <c r="A23" s="21"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="16">
         <f>1+10+10+10+2</f>
         <v>33</v>
@@ -2055,7 +2103,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1">
-      <c r="A24" s="21"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="16">
         <v>5</v>
       </c>
@@ -2076,7 +2124,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1">
-      <c r="A25" s="21"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="16">
         <v>4</v>
       </c>
@@ -2097,7 +2145,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="16">
@@ -2120,7 +2168,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="32"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -2141,7 +2189,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="32"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="16">
         <v>1</v>
       </c>
@@ -2174,15 +2222,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D033105-9DAE-B340-B6B8-4C630EA3FA23}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="9" width="10.83203125" style="15"/>
     <col min="10" max="11" width="10.83203125" style="14"/>
@@ -2192,66 +2240,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="U1" s="22" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="U1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="Y1" s="21" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="Y1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="21"/>
+      <c r="Z1" s="29"/>
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="16" t="s">
@@ -2299,35 +2347,35 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <f>table详细统计!B3/table详细统计!$I3</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <f>table详细统计!C3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <f>table详细统计!D3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <f>table详细统计!E3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <f>table详细统计!F3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <f>table详细统计!G3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="22">
         <f>table详细统计!H3/table详细统计!$I3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <f>SUM(A3:G3)</f>
         <v>1</v>
       </c>
@@ -2360,7 +2408,7 @@
       <c r="R3" s="16">
         <v>8</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="25">
         <f>R3/R$9</f>
         <v>0.15686274509803921</v>
       </c>
@@ -2383,35 +2431,35 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <f>table详细统计!B4/table详细统计!$I4</f>
         <v>0.625</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <f>table详细统计!C4/table详细统计!$I4</f>
         <v>0.25</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <f>table详细统计!D4/table详细统计!$I4</f>
         <v>0.125</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="24">
         <f>table详细统计!E4/table详细统计!$I4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <f>table详细统计!F4/table详细统计!$I4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <f>table详细统计!G4/table详细统计!$I4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <f>table详细统计!H4/table详细统计!$I4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <f t="shared" ref="H4:H28" si="0">SUM(A4:G4)</f>
         <v>1</v>
       </c>
@@ -2443,7 +2491,7 @@
       <c r="R4" s="16">
         <v>22</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="25">
         <f t="shared" ref="S4:S9" si="3">R4/R$9</f>
         <v>0.43137254901960786</v>
       </c>
@@ -2466,35 +2514,35 @@
       </c>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <f>table详细统计!B5/table详细统计!$I5</f>
         <v>0.6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <f>table详细统计!C5/table详细统计!$I5</f>
         <v>0.2</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <f>table详细统计!D5/table详细统计!$I5</f>
         <v>0.1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <f>table详细统计!E5/table详细统计!$I5</f>
         <v>0.1</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <f>table详细统计!F5/table详细统计!$I5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f>table详细统计!G5/table详细统计!$I5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <f>table详细统计!H5/table详细统计!$I5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2525,7 +2573,7 @@
       <c r="R5" s="16">
         <v>3</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="25">
         <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -2548,35 +2596,35 @@
       </c>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <f>table详细统计!B6/table详细统计!$I6</f>
         <v>0.4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <f>table详细统计!C6/table详细统计!$I6</f>
         <v>0.2</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <f>table详细统计!D6/table详细统计!$I6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <f>table详细统计!E6/table详细统计!$I6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <f>table详细统计!F6/table详细统计!$I6</f>
         <v>0.4</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="24">
         <f>table详细统计!G6/table详细统计!$I6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <f>table详细统计!H6/table详细统计!$I6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2607,7 +2655,7 @@
       <c r="R6" s="16">
         <v>11</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="25">
         <f t="shared" si="3"/>
         <v>0.21568627450980393</v>
       </c>
@@ -2630,35 +2678,35 @@
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <f>table详细统计!B7/table详细统计!$I7</f>
         <v>0.23529411764705882</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <f>table详细统计!C7/table详细统计!$I7</f>
         <v>0.11764705882352941</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <f>table详细统计!D7/table详细统计!$I7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="24">
         <f>table详细统计!E7/table详细统计!$I7</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <f>table详细统计!F7/table详细统计!$I7</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="24">
         <f>table详细统计!G7/table详细统计!$I7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <f>table详细统计!H7/table详细统计!$I7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2689,7 +2737,7 @@
       <c r="R7" s="16">
         <v>4</v>
       </c>
-      <c r="S7" s="29">
+      <c r="S7" s="25">
         <f t="shared" si="3"/>
         <v>7.8431372549019607E-2</v>
       </c>
@@ -2711,35 +2759,35 @@
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <f>table详细统计!B8/table详细统计!$I8</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <f>table详细统计!C8/table详细统计!$I8</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <f>table详细统计!D8/table详细统计!$I8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <f>table详细统计!E8/table详细统计!$I8</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <f>table详细统计!F8/table详细统计!$I8</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <f>table详细统计!G8/table详细统计!$I8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <f>table详细统计!H8/table详细统计!$I8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2769,7 +2817,7 @@
       <c r="R8" s="16">
         <v>3</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="25">
         <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -2785,35 +2833,35 @@
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <f>table详细统计!B9/table详细统计!$I9</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <f>table详细统计!C9/table详细统计!$I9</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <f>table详细统计!D9/table详细统计!$I9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <f>table详细统计!E9/table详细统计!$I9</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <f>table详细统计!F9/table详细统计!$I9</f>
         <v>0.36363636363636365</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <f>table详细统计!G9/table详细统计!$I9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <f>table详细统计!H9/table详细统计!$I9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2837,7 +2885,7 @@
         <f>SUM(R3:R8)</f>
         <v>51</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2853,35 +2901,35 @@
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <f>table详细统计!B10/table详细统计!$I10</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <f>table详细统计!C10/table详细统计!$I10</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f>table详细统计!D10/table详细统计!$I10</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <f>table详细统计!E10/table详细统计!$I10</f>
         <v>0.23809523809523808</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f>table详细统计!F10/table详细统计!$I10</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <f>table详细统计!G10/table详细统计!$I10</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f>table详细统计!H10/table详细统计!$I10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2907,94 +2955,94 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="21">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <f>table详细统计!B11/table详细统计!$I11</f>
         <v>0.625</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <f>table详细统计!C11/table详细统计!$I11</f>
         <v>0.125</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <f>table详细统计!D11/table详细统计!$I11</f>
         <v>0.125</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <f>table详细统计!E11/table详细统计!$I11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <f>table详细统计!F11/table详细统计!$I11</f>
         <v>0.125</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="24">
         <f>table详细统计!G11/table详细统计!$I11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <f>table详细统计!H11/table详细统计!$I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="Q11" s="21" t="s">
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="Q11" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="U11" s="22" t="s">
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="U11" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="21">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <f>table详细统计!B12/table详细统计!$I12</f>
         <v>0.5</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <f>table详细统计!C12/table详细统计!$I12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <f>table详细统计!D12/table详细统计!$I12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="24">
         <f>table详细统计!E12/table详细统计!$I12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <f>table详细统计!F12/table详细统计!$I12</f>
         <v>0.47727272727272729</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="24">
         <f>table详细统计!G12/table详细统计!$I12</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <f>table详细统计!H12/table详细统计!$I12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3041,35 +3089,35 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="21">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <f>table详细统计!B13/table详细统计!$I13</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <f>table详细统计!C13/table详细统计!$I13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <f>table详细统计!D13/table详细统计!$I13</f>
         <v>0.05</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="24">
         <f>table详细统计!E13/table详细统计!$I13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <f>table详细统计!F13/table详细统计!$I13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="24">
         <f>table详细统计!G13/table详细统计!$I13</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <f>table详细统计!H13/table详细统计!$I13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3102,8 +3150,8 @@
       <c r="R13" s="16">
         <v>5</v>
       </c>
-      <c r="S13" s="29">
-        <f>R13/R$19</f>
+      <c r="S13" s="25">
+        <f t="shared" ref="S13:S19" si="4">R13/R$19</f>
         <v>0.23809523809523808</v>
       </c>
       <c r="U13" s="17">
@@ -3122,35 +3170,35 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:28" ht="21">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <f>table详细统计!B14/table详细统计!$I14</f>
         <v>0.73076923076923073</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="24">
         <f>table详细统计!C14/table详细统计!$I14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <f>table详细统计!D14/table详细统计!$I14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="24">
         <f>table详细统计!E14/table详细统计!$I14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <f>table详细统计!F14/table详细统计!$I14</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <f>table详细统计!G14/table详细统计!$I14</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <f>table详细统计!H14/table详细统计!$I14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3161,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" ref="K14:K19" si="4">J14/J$19</f>
+        <f t="shared" ref="K14:K19" si="5">J14/J$19</f>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="L14" s="20"/>
@@ -3173,7 +3221,7 @@
         <v>8</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" ref="O14:O15" si="5">N14/N$16</f>
+        <f t="shared" ref="O14:O15" si="6">N14/N$16</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="Q14" s="16" t="s">
@@ -3182,8 +3230,8 @@
       <c r="R14" s="16">
         <v>3</v>
       </c>
-      <c r="S14" s="29">
-        <f>R14/R$19</f>
+      <c r="S14" s="25">
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="U14" s="17">
@@ -3193,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="20">
-        <f t="shared" ref="W14:W17" si="6">V14/V$18</f>
+        <f t="shared" ref="W14:W17" si="7">V14/V$18</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4"/>
@@ -3202,35 +3250,35 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:28" ht="21">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <f>table详细统计!B15/table详细统计!$I15</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="24">
         <f>table详细统计!C15/table详细统计!$I15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <f>table详细统计!D15/table详细统计!$I15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="24">
         <f>table详细统计!E15/table详细统计!$I15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <f>table详细统计!F15/table详细统计!$I15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="24">
         <f>table详细统计!G15/table详细统计!$I15</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <f>table详细统计!H15/table详细统计!$I15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3241,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="L15" s="20"/>
@@ -3252,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q15" s="16" t="s">
@@ -3261,8 +3309,8 @@
       <c r="R15" s="16">
         <v>0</v>
       </c>
-      <c r="S15" s="29">
-        <f>R15/R$19</f>
+      <c r="S15" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U15" s="17">
@@ -3272,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="W15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.36842105263157893</v>
       </c>
       <c r="Y15" s="4"/>
@@ -3281,35 +3329,35 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" ht="21">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <f>table详细统计!B16/table详细统计!$I16</f>
         <v>0.5</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="24">
         <f>table详细统计!C16/table详细统计!$I16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f>table详细统计!D16/table详细统计!$I16</f>
         <v>0.2</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="24">
         <f>table详细统计!E16/table详细统计!$I16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <f>table详细统计!F16/table详细统计!$I16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="24">
         <f>table详细统计!G16/table详细统计!$I16</f>
         <v>0.1</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <f>table详细统计!H16/table详细统计!$I16</f>
         <v>0.2</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3320,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="L16" s="20"/>
@@ -3339,8 +3387,8 @@
       <c r="R16" s="16">
         <v>1</v>
       </c>
-      <c r="S16" s="29">
-        <f>R16/R$19</f>
+      <c r="S16" s="25">
+        <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="U16" s="17">
@@ -3350,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y16" s="4"/>
@@ -3359,35 +3407,35 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="1:28" ht="21">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <f>table详细统计!B17/table详细统计!$I17</f>
         <v>0.25</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <f>table详细统计!C17/table详细统计!$I17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <f>table详细统计!D17/table详细统计!$I17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <f>table详细统计!E17/table详细统计!$I17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <f>table详细统计!F17/table详细统计!$I17</f>
         <v>0.75</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <f>table详细统计!G17/table详细统计!$I17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <f>table详细统计!H17/table详细统计!$I17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3398,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="L17" s="20"/>
@@ -3411,8 +3459,8 @@
       <c r="R17" s="16">
         <v>12</v>
       </c>
-      <c r="S17" s="29">
-        <f>R17/R$19</f>
+      <c r="S17" s="25">
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="U17" s="17">
@@ -3422,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="W17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="Y17" s="4"/>
@@ -3431,35 +3479,35 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="1:28" ht="21">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <f>table详细统计!B18/table详细统计!$I18</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <f>table详细统计!C18/table详细统计!$I18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>table详细统计!D18/table详细统计!$I18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="24">
         <f>table详细统计!E18/table详细统计!$I18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f>table详细统计!F18/table详细统计!$I18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <f>table详细统计!G18/table详细统计!$I18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f>table详细统计!H18/table详细统计!$I18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3470,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L18" s="20"/>
@@ -3483,8 +3531,8 @@
       <c r="R18" s="16">
         <v>0</v>
       </c>
-      <c r="S18" s="29">
-        <f>R18/R$19</f>
+      <c r="S18" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18" s="17"/>
@@ -3502,35 +3550,35 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" ht="21">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <f>table详细统计!B19/table详细统计!$I19</f>
         <v>0.78260869565217395</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <f>table详细统计!C19/table详细统计!$I19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f>table详细统计!D19/table详细统计!$I19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="24">
         <f>table详细统计!E19/table详细统计!$I19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <f>table详细统计!F19/table详细统计!$I19</f>
         <v>0.21739130434782608</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="24">
         <f>table详细统计!G19/table详细统计!$I19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f>table详细统计!H19/table详细统计!$I19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3540,7 +3588,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L19" s="20"/>
@@ -3554,8 +3602,8 @@
         <f>SUM(R13:R18)</f>
         <v>21</v>
       </c>
-      <c r="S19" s="29">
-        <f>R19/R$19</f>
+      <c r="S19" s="25">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U19" s="17"/>
@@ -3567,35 +3615,35 @@
       <c r="AB19" s="4"/>
     </row>
     <row r="20" spans="1:28" ht="21">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <f>table详细统计!B20/table详细统计!$I20</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="24">
         <f>table详细统计!C20/table详细统计!$I20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <f>table详细统计!D20/table详细统计!$I20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="24">
         <f>table详细统计!E20/table详细统计!$I20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <f>table详细统计!F20/table详细统计!$I20</f>
         <v>0.18181818181818182</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="24">
         <f>table详细统计!G20/table详细统计!$I20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f>table详细统计!H20/table详细统计!$I20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3612,54 +3660,54 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" ht="21">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <f>table详细统计!B21/table详细统计!$I21</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="24">
         <f>table详细统计!C21/table详细统计!$I21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <f>table详细统计!D21/table详细统计!$I21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="24">
         <f>table详细统计!E21/table详细统计!$I21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f>table详细统计!F21/table详细统计!$I21</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <f>table详细统计!G21/table详细统计!$I21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f>table详细统计!H21/table详细统计!$I21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="Q21" s="22" t="s">
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="Q21" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
       <c r="U21" s="11" t="s">
         <v>45</v>
       </c>
@@ -3673,35 +3721,35 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="1:28" ht="21">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <f>table详细统计!B22/table详细统计!$I22</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <f>table详细统计!C22/table详细统计!$I22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f>table详细统计!D22/table详细统计!$I22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="24">
         <f>table详细统计!E22/table详细统计!$I22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <f>table详细统计!F22/table详细统计!$I22</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="24">
         <f>table详细统计!G22/table详细统计!$I22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <f>table详细统计!H22/table详细统计!$I22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3746,35 +3794,35 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="1:28" ht="21">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <f>table详细统计!B23/table详细统计!$I23</f>
         <v>0.97058823529411764</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <f>table详细统计!C23/table详细统计!$I23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <f>table详细统计!D23/table详细统计!$I23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="24">
         <f>table详细统计!E23/table详细统计!$I23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <f>table详细统计!F23/table详细统计!$I23</f>
         <v>2.9411764705882353E-2</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="24">
         <f>table详细统计!G23/table详细统计!$I23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <f>table详细统计!H23/table详细统计!$I23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3824,35 +3872,35 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" ht="21">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <f>table详细统计!B24/table详细统计!$I24</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <f>table详细统计!C24/table详细统计!$I24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <f>table详细统计!D24/table详细统计!$I24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="24">
         <f>table详细统计!E24/table详细统计!$I24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <f>table详细统计!F24/table详细统计!$I24</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="24">
         <f>table详细统计!G24/table详细统计!$I24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <f>table详细统计!H24/table详细统计!$I24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3876,7 +3924,7 @@
         <v>4</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" ref="O24:O26" si="7">N24/N$26</f>
+        <f t="shared" ref="O24:O26" si="8">N24/N$26</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="Q24" s="17">
@@ -3887,7 +3935,7 @@
         <v>8</v>
       </c>
       <c r="S24" s="20">
-        <f t="shared" ref="S24:S26" si="8">R24/R$27</f>
+        <f t="shared" ref="S24:S26" si="9">R24/R$27</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="U24" s="14">
@@ -3902,35 +3950,35 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" ht="21">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <f>table详细统计!B25/table详细统计!$I25</f>
         <v>0.8</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <f>table详细统计!C25/table详细统计!$I25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <f>table详细统计!D25/table详细统计!$I25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="24">
         <f>table详细统计!E25/table详细统计!$I25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <f>table详细统计!F25/table详细统计!$I25</f>
         <v>0.2</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <f>table详细统计!G25/table详细统计!$I25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <f>table详细统计!H25/table详细统计!$I25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3953,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q25" s="17">
@@ -3964,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U25" s="14">
@@ -3977,35 +4025,35 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="1:28" ht="21">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <f>table详细统计!B26/table详细统计!$I26</f>
         <v>0.5</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <f>table详细统计!C26/table详细统计!$I26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <f>table详细统计!D26/table详细统计!$I26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <f>table详细统计!E26/table详细统计!$I26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="22">
         <f>table详细统计!F26/table详细统计!$I26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <f>table详细统计!G26/table详细统计!$I26</f>
         <v>0.5</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <f>table详细统计!H26/table详细统计!$I26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4026,7 +4074,7 @@
         <v>26</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q26" s="17">
@@ -4037,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="U26" s="14">
@@ -4050,35 +4098,35 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <f>table详细统计!B27/table详细统计!$I27</f>
         <v>0.5</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <f>table详细统计!C27/table详细统计!$I27</f>
         <v>0</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <f>table详细统计!D27/table详细统计!$I27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="24">
         <f>table详细统计!E27/table详细统计!$I27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <f>table详细统计!F27/table详细统计!$I27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <f>table详细统计!G27/table详细统计!$I27</f>
         <v>0.5</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <f>table详细统计!H27/table详细统计!$I27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <f>SUM(A27:G27)</f>
         <v>1</v>
       </c>
@@ -4106,35 +4154,35 @@
       </c>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <f>table详细统计!B28/table详细统计!$I28</f>
         <v>0.5</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <f>table详细统计!C28/table详细统计!$I28</f>
         <v>0</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <f>table详细统计!D28/table详细统计!$I28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="24">
         <f>table详细统计!E28/table详细统计!$I28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="22">
         <f>table详细统计!F28/table详细统计!$I28</f>
         <v>0.5</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="24">
         <f>table详细统计!G28/table详细统计!$I28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <f>table详细统计!H28/table详细统计!$I28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4145,21 +4193,1932 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M21:O21"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE6FC2-0FFC-1645-8F50-C1FEFF58B5B9}">
+  <dimension ref="A1:AH59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AW66" sqref="AW66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="28"/>
+    <col min="2" max="2" width="28.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="11"/>
+    <col min="8" max="9" width="10.83203125" style="15"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
+    <col min="11" max="11" width="10.83203125" style="11"/>
+    <col min="12" max="12" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="25.33203125" style="28" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="11"/>
+    <col min="22" max="22" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.83203125" style="11"/>
+    <col min="26" max="26" width="10.83203125" style="28"/>
+    <col min="27" max="27" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="11"/>
+    <col min="31" max="31" width="25.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="J1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="T1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="AA1" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AH1" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="28">
+        <v>23</v>
+      </c>
+      <c r="D3" s="28">
+        <v>11</v>
+      </c>
+      <c r="E3" s="28">
+        <v>12</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28">
+        <f>SUM(C3:F3)</f>
+        <v>46</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="T3" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28">
+        <f t="shared" ref="G4:G8" si="0">SUM(C4:F4)</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.43</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28">
+        <v>1</v>
+      </c>
+      <c r="M4" s="28">
+        <v>2</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="11">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11">
+        <v>2</v>
+      </c>
+      <c r="X4" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="28">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28">
+        <v>3</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28">
+        <v>1</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="T5" s="11">
+        <v>4</v>
+      </c>
+      <c r="U5" s="11">
+        <v>2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>2</v>
+      </c>
+      <c r="W5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="28">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1</v>
+      </c>
+      <c r="L6" s="28">
+        <v>1</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="T6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="U6" s="11">
+        <v>5</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
+      <c r="W6" s="11">
+        <v>1</v>
+      </c>
+      <c r="X6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="28">
+        <v>14</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28">
+        <v>1</v>
+      </c>
+      <c r="M7" s="28">
+        <v>2</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="T7" s="11">
+        <v>4</v>
+      </c>
+      <c r="W7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="34"/>
+      <c r="B8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="28">
+        <v>12</v>
+      </c>
+      <c r="D8" s="28">
+        <v>12</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28">
+        <v>1</v>
+      </c>
+      <c r="M8" s="28">
+        <v>11</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="T8" s="11">
+        <v>3</v>
+      </c>
+      <c r="U8" s="11">
+        <v>10</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="34"/>
+      <c r="B9" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="28">
+        <v>401</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28">
+        <v>6</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="AA9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="28">
+        <v>1</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28">
+        <v>6</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="AA10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="28">
+        <v>1</v>
+      </c>
+      <c r="L11" s="28">
+        <v>4</v>
+      </c>
+      <c r="M11" s="28">
+        <f>5+5</f>
+        <v>10</v>
+      </c>
+      <c r="N11" s="28">
+        <v>1</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="34"/>
+      <c r="B12" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="28">
+        <v>1</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28">
+        <v>1</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="AA12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="34"/>
+      <c r="B13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="28">
+        <v>2</v>
+      </c>
+      <c r="L13" s="28">
+        <v>4</v>
+      </c>
+      <c r="M13" s="28">
+        <v>9</v>
+      </c>
+      <c r="N13" s="28">
+        <v>1</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="34"/>
+      <c r="B14" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K14" s="28">
+        <v>2</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28">
+        <v>1</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="34"/>
+      <c r="B15" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="28">
+        <v>2</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="28">
+        <v>2</v>
+      </c>
+      <c r="L15" s="28">
+        <v>2</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="34"/>
+      <c r="B16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="28">
+        <v>1</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="28" customFormat="1">
+      <c r="A17" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="28">
+        <v>3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="28">
+        <v>1</v>
+      </c>
+      <c r="L17" s="36"/>
+      <c r="AB17" s="28">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="34"/>
+      <c r="B18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>1</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28">
+        <v>1</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="34"/>
+      <c r="B19" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="K19" s="28">
+        <v>1</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="AB19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="28" customFormat="1" ht="64">
+      <c r="A20" s="34"/>
+      <c r="B20" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="28">
+        <v>3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>2</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="38">
+        <v>1</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB20" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="34"/>
+      <c r="B21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="28">
+        <v>4</v>
+      </c>
+      <c r="D21" s="28">
+        <v>2</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>33</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="40">
+        <v>1</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="28"/>
+      <c r="AB21" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="64">
+      <c r="A22" s="34"/>
+      <c r="B22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="28">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28">
+        <v>1</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA22" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="28">
+        <v>2</v>
+      </c>
+      <c r="D23" s="28">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="28">
+        <v>2</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28">
+        <v>2</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="AA23" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="32">
+      <c r="A24" s="34"/>
+      <c r="B24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="28">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="32">
+      <c r="A25" s="34"/>
+      <c r="B25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="K25" s="14">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="34"/>
+      <c r="B26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="28">
+        <v>4</v>
+      </c>
+      <c r="D26" s="28">
+        <v>3</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="28">
+        <v>1</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA26" s="11">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="28">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="32">
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="28">
+        <v>4</v>
+      </c>
+      <c r="D27" s="28">
+        <v>2</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="28">
+        <v>1</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>5</v>
+      </c>
+      <c r="AF27" s="28">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="32">
+      <c r="A28" s="34"/>
+      <c r="B28" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="J28" s="42">
+        <v>1</v>
+      </c>
+      <c r="K28" s="40">
+        <v>1</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40">
+        <v>1</v>
+      </c>
+      <c r="N28" s="40"/>
+      <c r="O28" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="AA28" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28">
+        <v>1</v>
+      </c>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="AA29" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28">
+        <v>1</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="AA30" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="32">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="28">
+        <v>1</v>
+      </c>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28">
+        <v>1</v>
+      </c>
+      <c r="N31" s="28"/>
+      <c r="O31" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="32">
+      <c r="J32" s="14">
+        <v>1</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18">
+      <c r="L33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18" ht="32">
+      <c r="J34" s="14">
+        <v>1</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11">
+        <v>1</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18">
+      <c r="L35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:18">
+      <c r="J36" s="14">
+        <v>1</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18">
+      <c r="L37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:18">
+      <c r="L38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="10:18" ht="32">
+      <c r="J39" s="14">
+        <v>1</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18">
+      <c r="L40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:18">
+      <c r="J41" s="41"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38">
+        <v>1</v>
+      </c>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+    </row>
+    <row r="42" spans="10:18" ht="32">
+      <c r="K42" s="11">
+        <v>1</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="10:18" ht="48">
+      <c r="K43" s="11">
+        <v>2</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="10:18" ht="32">
+      <c r="K44" s="11">
+        <v>7</v>
+      </c>
+      <c r="L44" s="11">
+        <v>1</v>
+      </c>
+      <c r="M44" s="11">
+        <v>4</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="10:18">
+      <c r="J45" s="14">
+        <v>1</v>
+      </c>
+      <c r="K45" s="11">
+        <v>2</v>
+      </c>
+      <c r="L45" s="11">
+        <v>1</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="10:18">
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <v>2</v>
+      </c>
+      <c r="M46" s="11">
+        <v>6</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="10:18" ht="48">
+      <c r="K47" s="11">
+        <v>7</v>
+      </c>
+      <c r="M47" s="11">
+        <v>1</v>
+      </c>
+      <c r="N47" s="11">
+        <v>2</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="10:18">
+      <c r="K48" s="11">
+        <v>3</v>
+      </c>
+      <c r="L48" s="11">
+        <v>1</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15">
+      <c r="K49" s="11">
+        <v>3</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15">
+      <c r="J50" s="14">
+        <v>1</v>
+      </c>
+      <c r="K50" s="11">
+        <v>20</v>
+      </c>
+      <c r="M50" s="11">
+        <v>4</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15">
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15">
+      <c r="K52" s="11">
+        <v>1</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15">
+      <c r="K53" s="11">
+        <v>1</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" ht="32">
+      <c r="K54" s="11">
+        <v>1</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55" s="14">
+        <v>1</v>
+      </c>
+      <c r="K55" s="11">
+        <v>22</v>
+      </c>
+      <c r="L55" s="11">
+        <v>1</v>
+      </c>
+      <c r="M55" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56" s="14">
+        <v>2</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15">
+      <c r="J57" s="14">
+        <v>1</v>
+      </c>
+      <c r="K57" s="11">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11">
+        <v>5</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15">
+      <c r="K58" s="11">
+        <v>1</v>
+      </c>
+      <c r="O58" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15">
+      <c r="K59" s="11">
+        <v>1</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="O2:O3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241F2ED-A28C-2942-B392-4659B1B8B3D0}">
+  <dimension ref="A2:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>500</v>
+      </c>
+      <c r="F2" s="4">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>128</v>
+      </c>
+      <c r="J2" s="7">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3</v>
+      </c>
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="4">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>10</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="I13" s="7">
+        <v>15</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="I14" s="9">
+        <v>16</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="I15" s="9">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="I16" s="4">
+        <v>32</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="I17" s="4">
+        <v>64</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="I18" s="4">
+        <v>128</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>500</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="I7:J19">
+    <sortCondition ref="I7"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/src/load/generator/BenchMark统计记录表格.xlsx
+++ b/src/load/generator/BenchMark统计记录表格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e620131c24a12899/文档/实验室/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqingshuai/Documents/GitHub/Adaptive_Concurrency_Control/src/load/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="6_{46520BD4-40B7-9A4C-9999-29DC77D8E0D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{F94430FC-E527-514C-9F98-4431678D4D01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2603F6A5-DE6D-7C4B-A784-9E5742F636D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="基本统计信息" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -597,7 +598,7 @@
   </si>
   <si>
     <t>缺失一个主键，增加一个char（姓氏）（2次）</t>
-    <rPh sb="0" eb="191">
+    <rPh sb="0" eb="23">
       <t>que shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1039,27 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,6 +1059,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B209ACA-1486-3746-A4D4-6EA5CED53176}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="189" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
@@ -1571,17 +1572,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="27"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
@@ -1614,7 +1615,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="16">
@@ -1635,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
-      <c r="A4" s="29"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="16">
         <v>5</v>
       </c>
@@ -1658,7 +1659,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">
-      <c r="A5" s="29"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="16">
         <v>6</v>
       </c>
@@ -1683,7 +1684,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
-      <c r="A6" s="29"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1706,7 +1707,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
-      <c r="A7" s="29"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -1731,7 +1732,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="16">
         <v>1</v>
       </c>
@@ -1756,7 +1757,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1">
-      <c r="A9" s="29"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="16">
         <v>3</v>
       </c>
@@ -1781,7 +1782,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
-      <c r="A10" s="29"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="16">
         <f>3+2</f>
         <v>5</v>
@@ -1811,7 +1812,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="29"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="16">
         <v>5</v>
       </c>
@@ -1836,7 +1837,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="16">
@@ -1861,7 +1862,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="16">
         <v>37</v>
       </c>
@@ -1884,7 +1885,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="16">
         <v>19</v>
       </c>
@@ -1907,7 +1908,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="16">
         <v>13</v>
       </c>
@@ -1928,7 +1929,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="16">
         <v>5</v>
       </c>
@@ -1953,7 +1954,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="16">
         <v>1</v>
       </c>
@@ -1974,7 +1975,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -1995,7 +1996,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="16">
         <v>18</v>
       </c>
@@ -2016,7 +2017,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="16">
         <v>18</v>
       </c>
@@ -2037,7 +2038,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="16">
         <v>1</v>
       </c>
@@ -2058,7 +2059,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="16">
@@ -2081,7 +2082,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="16">
         <f>1+10+10+10+2</f>
         <v>33</v>
@@ -2103,7 +2104,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="16">
         <v>5</v>
       </c>
@@ -2124,7 +2125,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="16">
         <v>4</v>
       </c>
@@ -2145,7 +2146,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="16">
@@ -2168,7 +2169,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="30"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -2189,7 +2190,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="30"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="16">
         <v>1</v>
       </c>
@@ -2240,41 +2241,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="29" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="Q1" s="29" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="31" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="U1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="Y1" s="29" t="s">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="Y1" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="29"/>
+      <c r="Z1" s="36"/>
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1">
@@ -2987,27 +2988,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="Q11" s="29" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="Q11" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="U11" s="31" t="s">
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="U11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -3692,22 +3693,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="Q21" s="31" t="s">
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="Q21" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
       <c r="U21" s="11" t="s">
         <v>45</v>
       </c>
@@ -4193,6 +4194,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U11:W11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I1:K1"/>
@@ -4200,12 +4207,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4216,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE6FC2-0FFC-1645-8F50-C1FEFF58B5B9}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AW66" sqref="AW66"/>
@@ -4254,38 +4255,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="J1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="T1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="AA1" s="34" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="AA1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
       <c r="AH1" s="11" t="s">
         <v>85</v>
       </c>
@@ -4310,23 +4311,23 @@
       <c r="H2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="41" t="s">
         <v>123</v>
       </c>
       <c r="T2" s="11" t="s">
@@ -4347,19 +4348,19 @@
       <c r="Y2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34" t="s">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AF2" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="41" t="s">
         <v>116</v>
       </c>
       <c r="AH2" s="11" t="s">
@@ -4367,7 +4368,7 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -4405,10 +4406,10 @@
       <c r="N3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
       <c r="T3" s="11">
         <v>3</v>
       </c>
@@ -4427,16 +4428,16 @@
       <c r="AD3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="28">
@@ -4453,7 +4454,7 @@
         <f t="shared" ref="G4:G8" si="0">SUM(C4:F4)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="42">
         <v>0.43</v>
       </c>
       <c r="K4" s="28"/>
@@ -4491,8 +4492,8 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="28">
         <v>5</v>
       </c>
@@ -4507,7 +4508,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H5" s="35"/>
+      <c r="H5" s="42"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28">
         <v>1</v>
@@ -4544,8 +4545,8 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="28">
@@ -4558,7 +4559,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="42">
         <v>0.04</v>
       </c>
       <c r="K6" s="28">
@@ -4596,8 +4597,8 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="28">
         <v>14</v>
       </c>
@@ -4608,7 +4609,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="42"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28">
         <v>1</v>
@@ -4635,7 +4636,7 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="34"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="28" t="s">
         <v>90</v>
       </c>
@@ -4691,7 +4692,7 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="28" t="s">
         <v>91</v>
       </c>
@@ -4723,7 +4724,7 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="41" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -4754,7 +4755,7 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="34"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="28" t="s">
         <v>93</v>
       </c>
@@ -4792,7 +4793,7 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="28" t="s">
         <v>94</v>
       </c>
@@ -4824,7 +4825,7 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="34"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="28" t="s">
         <v>95</v>
       </c>
@@ -4864,7 +4865,7 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="34"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="28" t="s">
         <v>96</v>
       </c>
@@ -4903,7 +4904,7 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="34"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="28" t="s">
         <v>97</v>
       </c>
@@ -4940,7 +4941,7 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="34"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="28" t="s">
         <v>98</v>
       </c>
@@ -4979,7 +4980,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="28" customFormat="1">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -4996,7 +4997,7 @@
       <c r="K17" s="28">
         <v>1</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="29"/>
       <c r="AB17" s="28">
         <v>1</v>
       </c>
@@ -5005,7 +5006,7 @@
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="34"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="28" t="s">
         <v>101</v>
       </c>
@@ -5041,7 +5042,7 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="34"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="28" t="s">
         <v>102</v>
       </c>
@@ -5072,7 +5073,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" s="28" customFormat="1" ht="64">
-      <c r="A20" s="34"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
@@ -5086,19 +5087,19 @@
         <v>0.25</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="38">
-        <v>1</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39" t="s">
+      <c r="J20" s="34"/>
+      <c r="K20" s="31">
+        <v>1</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38" t="s">
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31" t="s">
         <v>125</v>
       </c>
       <c r="AB20" s="28">
@@ -5109,7 +5110,7 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="34"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="28" t="s">
         <v>100</v>
       </c>
@@ -5132,10 +5133,10 @@
         <v>33</v>
       </c>
       <c r="L21" s="12"/>
-      <c r="M21" s="40">
-        <v>1</v>
-      </c>
-      <c r="N21" s="40"/>
+      <c r="M21" s="33">
+        <v>1</v>
+      </c>
+      <c r="N21" s="33"/>
       <c r="O21" s="28"/>
       <c r="AB21" s="11">
         <v>1</v>
@@ -5145,7 +5146,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="64">
-      <c r="A22" s="34"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="28" t="s">
         <v>103</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="28"/>
-      <c r="O22" s="37" t="s">
+      <c r="O22" s="30" t="s">
         <v>127</v>
       </c>
       <c r="AA22" s="11">
@@ -5178,7 +5179,7 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -5221,7 +5222,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="32">
-      <c r="A24" s="34"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="28" t="s">
         <v>106</v>
       </c>
@@ -5241,7 +5242,7 @@
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="37" t="s">
+      <c r="O24" s="30" t="s">
         <v>128</v>
       </c>
       <c r="AA24" s="11">
@@ -5252,7 +5253,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="32">
-      <c r="A25" s="34"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="28" t="s">
         <v>107</v>
       </c>
@@ -5272,7 +5273,7 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="37" t="s">
+      <c r="O25" s="30" t="s">
         <v>128</v>
       </c>
       <c r="AA25" s="11">
@@ -5283,7 +5284,7 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="34"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="28" t="s">
         <v>108</v>
       </c>
@@ -5321,7 +5322,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="32">
-      <c r="A27" s="34"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="28" t="s">
         <v>109</v>
       </c>
@@ -5343,7 +5344,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="37" t="s">
+      <c r="O27" s="30" t="s">
         <v>128</v>
       </c>
       <c r="AA27" s="11">
@@ -5357,7 +5358,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="32">
-      <c r="A28" s="34"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="28" t="s">
         <v>110</v>
       </c>
@@ -5373,23 +5374,23 @@
       <c r="H28" s="15">
         <v>0.15</v>
       </c>
-      <c r="J28" s="42">
-        <v>1</v>
-      </c>
-      <c r="K28" s="40">
-        <v>1</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40">
-        <v>1</v>
-      </c>
-      <c r="N28" s="40"/>
-      <c r="O28" s="37" t="s">
+      <c r="J28" s="35">
+        <v>1</v>
+      </c>
+      <c r="K28" s="33">
+        <v>1</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33">
+        <v>1</v>
+      </c>
+      <c r="N28" s="33"/>
+      <c r="O28" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
       <c r="AA28" s="11">
         <v>2</v>
       </c>
@@ -5398,7 +5399,7 @@
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="34"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -5458,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="28"/>
-      <c r="O31" s="37" t="s">
+      <c r="O31" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5472,7 +5473,7 @@
       <c r="M32" s="11">
         <v>1</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="O32" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5491,7 +5492,7 @@
       <c r="M34" s="11">
         <v>1</v>
       </c>
-      <c r="O34" s="37" t="s">
+      <c r="O34" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5531,7 +5532,7 @@
       <c r="M39" s="11">
         <v>1</v>
       </c>
-      <c r="O39" s="37" t="s">
+      <c r="O39" s="30" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5541,23 +5542,23 @@
       </c>
     </row>
     <row r="41" spans="10:18">
-      <c r="J41" s="41"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38">
-        <v>1</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31">
+        <v>1</v>
+      </c>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
     </row>
     <row r="42" spans="10:18" ht="32">
       <c r="K42" s="11">
         <v>1</v>
       </c>
-      <c r="O42" s="37" t="s">
+      <c r="O42" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5565,7 +5566,7 @@
       <c r="K43" s="11">
         <v>2</v>
       </c>
-      <c r="O43" s="37" t="s">
+      <c r="O43" s="30" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5579,7 +5580,7 @@
       <c r="M44" s="11">
         <v>4</v>
       </c>
-      <c r="O44" s="37" t="s">
+      <c r="O44" s="30" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5624,7 +5625,7 @@
       <c r="N47" s="11">
         <v>2</v>
       </c>
-      <c r="O47" s="37" t="s">
+      <c r="O47" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5692,7 +5693,7 @@
       <c r="K54" s="11">
         <v>1</v>
       </c>
-      <c r="O54" s="37" t="s">
+      <c r="O54" s="30" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5750,27 +5751,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/load/generator/BenchMark统计记录表格.xlsx
+++ b/src/load/generator/BenchMark统计记录表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqingshuai/Documents/GitHub/Adaptive_Concurrency_Control/src/load/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2603F6A5-DE6D-7C4B-A784-9E5742F636D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B370ADB-0230-844C-8517-A0D055F91EEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="基本统计信息" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="144">
   <si>
     <t>&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +692,10 @@
     <rPh sb="0" eb="1">
       <t>que shi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,13 +1070,13 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1559,9 +1562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B209ACA-1486-3746-A4D4-6EA5CED53176}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2227,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D033105-9DAE-B340-B6B8-4C630EA3FA23}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -2241,16 +2244,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="36" t="s">
         <v>30</v>
       </c>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
       <c r="Y1" s="36" t="s">
         <v>70</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="25">
-        <f t="shared" si="3"/>
+        <f>R7/R$9</f>
         <v>7.8431372549019607E-2</v>
       </c>
       <c r="U7" s="17"/>
@@ -2988,27 +2991,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="40" t="s">
+      <c r="M11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
       <c r="Q11" s="36" t="s">
         <v>66</v>
       </c>
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
-      <c r="U11" s="40" t="s">
+      <c r="U11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -3133,7 +3136,10 @@
         <f>J13/J$19</f>
         <v>0.69230769230769229</v>
       </c>
-      <c r="L13" s="20"/>
+      <c r="L13" s="20">
+        <f>K13</f>
+        <v>0.69230769230769229</v>
+      </c>
       <c r="M13" s="17">
         <v>0</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>5</v>
       </c>
       <c r="S13" s="25">
-        <f t="shared" ref="S13:S19" si="4">R13/R$19</f>
+        <f>R13/R$19</f>
         <v>0.23809523809523808</v>
       </c>
       <c r="U13" s="17">
@@ -3210,10 +3216,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="20">
-        <f t="shared" ref="K14:K19" si="5">J14/J$19</f>
+        <f t="shared" ref="K14:K19" si="4">J14/J$19</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="L14" s="20"/>
+      <c r="L14" s="20">
+        <f>K14+L13</f>
+        <v>0.73076923076923073</v>
+      </c>
       <c r="M14" s="17" t="s">
         <v>25</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>8</v>
       </c>
       <c r="O14" s="20">
-        <f t="shared" ref="O14:O15" si="6">N14/N$16</f>
+        <f t="shared" ref="O14:O15" si="5">N14/N$16</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="Q14" s="16" t="s">
@@ -3232,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="S13:S19" si="6">R14/R$19</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="U14" s="17">
@@ -3290,10 +3299,13 @@
         <v>4</v>
       </c>
       <c r="K15" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="L15" s="20"/>
+      <c r="L15" s="20">
+        <f t="shared" ref="L15:L17" si="8">K15+L14</f>
+        <v>0.88461538461538458</v>
+      </c>
       <c r="M15" s="17" t="s">
         <v>41</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q15" s="16" t="s">
@@ -3311,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U15" s="17">
@@ -3323,6 +3335,9 @@
       <c r="W15" s="20">
         <f t="shared" si="7"/>
         <v>0.36842105263157893</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -3369,10 +3384,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="L16" s="20"/>
+      <c r="L16" s="20">
+        <f t="shared" si="8"/>
+        <v>0.92307692307692302</v>
+      </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17">
         <f>SUM(N13:N15)</f>
@@ -3389,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="U16" s="17">
@@ -3447,10 +3465,13 @@
         <v>2</v>
       </c>
       <c r="K17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="L17" s="20"/>
+      <c r="L17" s="20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="20"/>
@@ -3461,7 +3482,7 @@
         <v>12</v>
       </c>
       <c r="S17" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="U17" s="17">
@@ -3519,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="20"/>
@@ -3533,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="17"/>
@@ -3589,7 +3610,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L19" s="20"/>
@@ -3604,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="S19" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U19" s="17"/>
@@ -3693,22 +3714,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="Q21" s="40" t="s">
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="Q21" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
       <c r="U21" s="11" t="s">
         <v>45</v>
       </c>
@@ -3925,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="O24" s="20">
-        <f t="shared" ref="O24:O26" si="8">N24/N$26</f>
+        <f t="shared" ref="O24:O26" si="9">N24/N$26</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="Q24" s="17">
@@ -3936,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="S24" s="20">
-        <f t="shared" ref="S24:S26" si="9">R24/R$27</f>
+        <f t="shared" ref="S24:S26" si="10">R24/R$27</f>
         <v>0.30769230769230771</v>
       </c>
       <c r="U24" s="14">
@@ -4002,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="Q25" s="17">
@@ -4013,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U25" s="14">
@@ -4075,7 +4096,7 @@
         <v>26</v>
       </c>
       <c r="O26" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q26" s="17">
@@ -4086,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="U26" s="14">
@@ -4194,12 +4215,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U11:W11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I1:K1"/>
@@ -4207,6 +4222,12 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4217,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE6FC2-0FFC-1645-8F50-C1FEFF58B5B9}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -5751,18 +5772,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J2:N2"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A22"/>
@@ -5772,6 +5781,18 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/load/generator/BenchMark统计记录表格.xlsx
+++ b/src/load/generator/BenchMark统计记录表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10723"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangqingshuai/Documents/GitHub/Adaptive_Concurrency_Control/src/load/generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B370ADB-0230-844C-8517-A0D055F91EEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D1F3E-A90E-444A-ADF1-B39363A6DCFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{C719CC02-53AC-8945-9C03-1980EB4E7D13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="146">
   <si>
     <t>&lt;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,14 @@
   </si>
   <si>
     <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,19 +1072,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1562,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B209ACA-1486-3746-A4D4-6EA5CED53176}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1575,17 +1586,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="27"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16"/>
@@ -1618,7 +1629,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="16">
@@ -1639,7 +1650,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="16">
         <v>5</v>
       </c>
@@ -1662,7 +1673,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="16">
         <v>6</v>
       </c>
@@ -1687,7 +1698,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1710,7 +1721,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -1735,7 +1746,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="16">
         <v>1</v>
       </c>
@@ -1760,7 +1771,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="16">
         <v>3</v>
       </c>
@@ -1785,7 +1796,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="16">
         <f>3+2</f>
         <v>5</v>
@@ -1815,7 +1826,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="16">
         <v>5</v>
       </c>
@@ -1840,7 +1851,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="16">
@@ -1865,7 +1876,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="16">
         <v>37</v>
       </c>
@@ -1888,7 +1899,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="16">
         <v>19</v>
       </c>
@@ -1911,7 +1922,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="16">
         <v>13</v>
       </c>
@@ -1932,7 +1943,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1">
-      <c r="A16" s="37"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="16">
         <v>5</v>
       </c>
@@ -1957,7 +1968,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1">
-      <c r="A17" s="37"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="16">
         <v>1</v>
       </c>
@@ -1978,7 +1989,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="16">
         <v>2</v>
       </c>
@@ -1999,7 +2010,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="16">
         <v>18</v>
       </c>
@@ -2020,7 +2031,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="16">
         <v>18</v>
       </c>
@@ -2041,7 +2052,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="16">
         <v>1</v>
       </c>
@@ -2062,7 +2073,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="16">
@@ -2085,7 +2096,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1">
-      <c r="A23" s="36"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="16">
         <f>1+10+10+10+2</f>
         <v>33</v>
@@ -2107,7 +2118,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="16">
         <v>5</v>
       </c>
@@ -2128,7 +2139,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1">
-      <c r="A25" s="36"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="16">
         <v>4</v>
       </c>
@@ -2149,7 +2160,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="16">
@@ -2172,7 +2183,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -2193,7 +2204,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="16">
         <v>1</v>
       </c>
@@ -2223,6 +2234,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2254,31 +2266,31 @@
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="16"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="Q1" s="36" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="Q1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="U1" s="38" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="U1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="Y1" s="36" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="Y1" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="36"/>
+      <c r="Z1" s="37"/>
       <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1">
@@ -2991,27 +3003,27 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="Q11" s="36" t="s">
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="Q11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="U11" s="38" t="s">
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="U11" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
@@ -3241,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="S14" s="25">
-        <f t="shared" ref="S13:S19" si="6">R14/R$19</f>
+        <f t="shared" ref="S14:S19" si="6">R14/R$19</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="U14" s="17">
@@ -3714,22 +3726,22 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="Q21" s="38" t="s">
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="Q21" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
       <c r="U21" s="11" t="s">
         <v>45</v>
       </c>
@@ -4215,6 +4227,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="U11:W11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I1:K1"/>
@@ -4222,12 +4240,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="U11:W11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4236,13 +4248,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE6FC2-0FFC-1645-8F50-C1FEFF58B5B9}">
-  <dimension ref="A1:AH59"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW66" sqref="AW66"/>
+      <selection pane="bottomRight" activeCell="L77" sqref="L77:L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4276,38 +4288,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="J1" s="41" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="J1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="T1" s="41" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="T1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="AA1" s="41" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="AA1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
       <c r="AH1" s="11" t="s">
         <v>85</v>
       </c>
@@ -4332,23 +4344,23 @@
       <c r="H2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41" t="s">
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="42" t="s">
         <v>123</v>
       </c>
       <c r="T2" s="11" t="s">
@@ -4369,19 +4381,19 @@
       <c r="Y2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41" t="s">
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="42" t="s">
         <v>116</v>
       </c>
       <c r="AH2" s="11" t="s">
@@ -4389,7 +4401,7 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -4427,10 +4439,10 @@
       <c r="N3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
       <c r="T3" s="11">
         <v>3</v>
       </c>
@@ -4449,16 +4461,16 @@
       <c r="AD3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
       <c r="AH3" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="28">
@@ -4475,7 +4487,7 @@
         <f t="shared" ref="G4:G8" si="0">SUM(C4:F4)</f>
         <v>7</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="43">
         <v>0.43</v>
       </c>
       <c r="K4" s="28"/>
@@ -4513,8 +4525,8 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="28">
         <v>5</v>
       </c>
@@ -4529,7 +4541,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28">
         <v>1</v>
@@ -4566,8 +4578,8 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="28">
@@ -4580,7 +4592,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="43">
         <v>0.04</v>
       </c>
       <c r="K6" s="28">
@@ -4618,8 +4630,8 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="28">
         <v>14</v>
       </c>
@@ -4630,7 +4642,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28">
         <v>1</v>
@@ -4657,7 +4669,7 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="28" t="s">
         <v>90</v>
       </c>
@@ -4713,7 +4725,7 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="28" t="s">
         <v>91</v>
       </c>
@@ -4745,7 +4757,7 @@
       </c>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -4776,7 +4788,7 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
         <v>93</v>
       </c>
@@ -4814,7 +4826,7 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="28" t="s">
         <v>94</v>
       </c>
@@ -4846,7 +4858,7 @@
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="28" t="s">
         <v>95</v>
       </c>
@@ -4886,7 +4898,7 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="28" t="s">
         <v>96</v>
       </c>
@@ -4925,7 +4937,7 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="28" t="s">
         <v>97</v>
       </c>
@@ -4962,7 +4974,7 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="28" t="s">
         <v>98</v>
       </c>
@@ -5001,7 +5013,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" s="28" customFormat="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -5027,7 +5039,7 @@
       </c>
     </row>
     <row r="18" spans="1:33">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="28" t="s">
         <v>101</v>
       </c>
@@ -5063,7 +5075,7 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="28" t="s">
         <v>102</v>
       </c>
@@ -5094,7 +5106,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" s="28" customFormat="1" ht="64">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="28" t="s">
         <v>111</v>
       </c>
@@ -5131,7 +5143,7 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="28" t="s">
         <v>100</v>
       </c>
@@ -5167,7 +5179,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="64">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="28" t="s">
         <v>103</v>
       </c>
@@ -5200,7 +5212,7 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -5243,7 +5255,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="32">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="28" t="s">
         <v>106</v>
       </c>
@@ -5274,7 +5286,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="32">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="28" t="s">
         <v>107</v>
       </c>
@@ -5305,7 +5317,7 @@
       </c>
     </row>
     <row r="26" spans="1:33">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="28" t="s">
         <v>108</v>
       </c>
@@ -5343,7 +5355,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="32">
-      <c r="A27" s="41"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="28" t="s">
         <v>109</v>
       </c>
@@ -5379,7 +5391,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" ht="32">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="28" t="s">
         <v>110</v>
       </c>
@@ -5420,7 +5432,7 @@
       </c>
     </row>
     <row r="29" spans="1:33">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -5770,8 +5782,245 @@
         <v>142</v>
       </c>
     </row>
+    <row r="61" spans="10:15">
+      <c r="J61" s="14">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11">
+        <f>COUNTBLANK(K4:K59)</f>
+        <v>18</v>
+      </c>
+      <c r="L61" s="11">
+        <f>K61/K$66</f>
+        <v>0.32142857142857145</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15">
+      <c r="J62" s="14">
+        <v>1</v>
+      </c>
+      <c r="K62" s="11">
+        <f>COUNTIF(K4:K61,1)</f>
+        <v>24</v>
+      </c>
+      <c r="L62" s="36">
+        <f t="shared" ref="L62:L65" si="1">K62/K$66</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15">
+      <c r="J63" s="14">
+        <v>2</v>
+      </c>
+      <c r="K63" s="11">
+        <f>COUNTIF(K4:K59,2)</f>
+        <v>6</v>
+      </c>
+      <c r="L63" s="36">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15">
+      <c r="J64" s="14">
+        <v>3</v>
+      </c>
+      <c r="K64" s="11">
+        <f>COUNTIF(K4:K59,3)</f>
+        <v>2</v>
+      </c>
+      <c r="L64" s="36">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="10:12">
+      <c r="J65" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="11">
+        <f>COUNTIF(K4:K59,"&gt;3")</f>
+        <v>6</v>
+      </c>
+      <c r="L65" s="36">
+        <f t="shared" si="1"/>
+        <v>0.10714285714285714</v>
+      </c>
+    </row>
+    <row r="66" spans="10:12">
+      <c r="K66" s="11">
+        <f>SUM(K61:K65)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="10:12">
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="11">
+        <f>COUNTBLANK(L4:L59)</f>
+        <v>33</v>
+      </c>
+      <c r="L67" s="11">
+        <f>K67/56</f>
+        <v>0.5892857142857143</v>
+      </c>
+    </row>
+    <row r="68" spans="10:12">
+      <c r="J68" s="14">
+        <v>1</v>
+      </c>
+      <c r="K68" s="11">
+        <f>COUNTIF(L4:L59,1)</f>
+        <v>19</v>
+      </c>
+      <c r="L68" s="36">
+        <f t="shared" ref="L68:L70" si="2">K68/56</f>
+        <v>0.3392857142857143</v>
+      </c>
+    </row>
+    <row r="69" spans="10:12">
+      <c r="J69" s="14">
+        <v>2</v>
+      </c>
+      <c r="K69" s="36">
+        <f>COUNTIF(L4:L59,2)</f>
+        <v>2</v>
+      </c>
+      <c r="L69" s="36">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="10:12">
+      <c r="J70" s="14">
+        <v>4</v>
+      </c>
+      <c r="K70" s="11">
+        <f>COUNTIF(L4:L59,4)</f>
+        <v>2</v>
+      </c>
+      <c r="L70" s="36">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="10:12">
+      <c r="K71" s="11">
+        <f>SUM(K67:K70)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="10:12">
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <f>COUNTBLANK(M4:M59)</f>
+        <v>32</v>
+      </c>
+      <c r="L72" s="11">
+        <f>K72/56</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="73" spans="10:12">
+      <c r="J73" s="14">
+        <v>1</v>
+      </c>
+      <c r="K73" s="11">
+        <f>COUNTIF(M4:M59,1)</f>
+        <v>11</v>
+      </c>
+      <c r="L73" s="36">
+        <f t="shared" ref="L73:L75" si="3">K73/56</f>
+        <v>0.19642857142857142</v>
+      </c>
+    </row>
+    <row r="74" spans="10:12">
+      <c r="J74" s="14">
+        <v>2</v>
+      </c>
+      <c r="K74" s="11">
+        <f>COUNTIF(M4:M59,2)</f>
+        <v>3</v>
+      </c>
+      <c r="L74" s="36">
+        <f t="shared" si="3"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="10:12">
+      <c r="J75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K75" s="36">
+        <f>COUNTIF(M4:M59,"&gt;2")</f>
+        <v>10</v>
+      </c>
+      <c r="L75" s="36">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="76" spans="10:12">
+      <c r="K76" s="11">
+        <f>SUM(K72:K75)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="10:12">
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="11">
+        <f>COUNTBLANK(N4:N59)</f>
+        <v>51</v>
+      </c>
+      <c r="L77" s="11">
+        <f>K77/56</f>
+        <v>0.9107142857142857</v>
+      </c>
+    </row>
+    <row r="78" spans="10:12">
+      <c r="J78" s="14">
+        <v>1</v>
+      </c>
+      <c r="K78" s="11">
+        <f>COUNTIF(N4:N59,1)</f>
+        <v>4</v>
+      </c>
+      <c r="L78" s="36">
+        <f t="shared" ref="L78:L79" si="4">K78/56</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="10:12">
+      <c r="J79" s="14">
+        <v>2</v>
+      </c>
+      <c r="K79" s="11">
+        <v>1</v>
+      </c>
+      <c r="L79" s="36">
+        <f t="shared" si="4"/>
+        <v>1.7857142857142856E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="10:12">
+      <c r="K80" s="11">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A22"/>
@@ -5786,13 +6035,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
